--- a/matrice.xlsx
+++ b/matrice.xlsx
@@ -62,29 +62,29 @@
     <t xml:space="preserve">Corrompt </t>
   </si>
   <si>
-    <t xml:space="preserve">Propose des bateaux
-S'inscrit à des expéditions
-</t>
-  </si>
-  <si>
     <t>Inscrit</t>
   </si>
   <si>
     <t xml:space="preserve">Contacte
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propose des sorties
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envoie le formulaire de son bateau
-Propose une sortie
 </t>
   </si>
   <si>
     <t xml:space="preserve">Vérifie baâaatoaû
 Gère mise en ligne
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+S'inscrit à des expéditions
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envoie le formulaire de son bateau
+Propose une sortie Met à jour les pièces de son bateau 
 </t>
   </si>
 </sst>
@@ -409,7 +409,7 @@
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,15 +439,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -456,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">

--- a/matrice.xlsx
+++ b/matrice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,22 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Adhérent</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Secrétaire</t>
   </si>
   <si>
     <t>Visiteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valide inscription
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -49,29 +42,13 @@
     <t>S'inscrit auprès de</t>
   </si>
   <si>
-    <t xml:space="preserve">"-&gt;"
-</t>
-  </si>
-  <si>
     <t>Fournisseur</t>
   </si>
   <si>
     <t>Livre les pièces</t>
   </si>
   <si>
-    <t xml:space="preserve">Corrompt </t>
-  </si>
-  <si>
     <t>Inscrit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacte
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vérifie baâaatoaû
-Gère mise en ligne
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -83,18 +60,40 @@
 </t>
   </si>
   <si>
+    <t>Administrateur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Envoie le formulaire de son bateau
-Propose une sortie Met à jour les pièces de son bateau 
-</t>
+Propose une sortie Met à jour les pièces de son bateau </t>
+  </si>
+  <si>
+    <t>Vérifie les bateaux
+Gère la mise en ligne</t>
+  </si>
+  <si>
+    <t>Valide inscription</t>
+  </si>
+  <si>
+    <t>Contacte</t>
+  </si>
+  <si>
+    <t>Ajoute à la liste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -109,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -117,20 +116,450 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -141,6 +570,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B1:G6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="B1:G6">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" name="_x000a_" dataDxfId="5"/>
+    <tableColumn id="2" name="Adhérent" dataDxfId="4"/>
+    <tableColumn id="3" name="Administrateur" dataDxfId="3"/>
+    <tableColumn id="4" name="Secrétaire" dataDxfId="2"/>
+    <tableColumn id="5" name="Visiteur" dataDxfId="1"/>
+    <tableColumn id="6" name="Fournisseur" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,96 +859,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
     </row>
-    <row r="2" spans="2:7" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>